--- a/sample_import_files/wilayas.xlsx
+++ b/sample_import_files/wilayas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>code</t>
   </si>
@@ -22,82 +22,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>NKC</t>
+  </si>
+  <si>
     <t>NDB</t>
   </si>
   <si>
-    <t>NKC</t>
-  </si>
-  <si>
-    <t>TRZ</t>
-  </si>
-  <si>
-    <t>BRK</t>
-  </si>
-  <si>
-    <t>GRG</t>
-  </si>
-  <si>
-    <t>ADR</t>
-  </si>
-  <si>
-    <t>ASB</t>
-  </si>
-  <si>
-    <t>GDM</t>
-  </si>
-  <si>
-    <t>HEC</t>
-  </si>
-  <si>
-    <t>HEG</t>
-  </si>
-  <si>
-    <t>INC</t>
-  </si>
-  <si>
-    <t>TGN</t>
-  </si>
-  <si>
-    <t>TRS</t>
+    <t>ATR</t>
+  </si>
+  <si>
+    <t>KED</t>
+  </si>
+  <si>
+    <t>Nouakchott</t>
   </si>
   <si>
     <t>Nouadhibou</t>
   </si>
   <si>
-    <t>Nouakchott</t>
-  </si>
-  <si>
-    <t>Trarza</t>
-  </si>
-  <si>
-    <t>Brakna</t>
-  </si>
-  <si>
-    <t>Gorgol</t>
-  </si>
-  <si>
-    <t>Adrar</t>
-  </si>
-  <si>
-    <t>Assaba</t>
-  </si>
-  <si>
-    <t>Guidimaka</t>
-  </si>
-  <si>
-    <t>Hodh Ech Chargui</t>
-  </si>
-  <si>
-    <t>Hodh El Gharbi</t>
-  </si>
-  <si>
-    <t>Inchiri</t>
-  </si>
-  <si>
-    <t>Tagant</t>
-  </si>
-  <si>
-    <t>Tiris Zemmour</t>
+    <t>Atar</t>
+  </si>
+  <si>
+    <t>Kaédi</t>
   </si>
 </sst>
 </file>
@@ -455,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -482,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,79 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
